--- a/SellyExcel/6.9 테스트 통과/화면분석 시나리오.xlsx
+++ b/SellyExcel/6.9 테스트 통과/화면분석 시나리오.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/id_sucheol/Desktop/SellyExcel/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/id_sucheol/Desktop/Project/IMQA-TestSelly/SellyExcel/6.9 테스트 통과/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7720E756-4569-F548-A31F-68698C542149}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E89C74F0-D9C1-4640-95DB-6F0528B16678}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="27440" yWindow="14860" windowWidth="27500" windowHeight="16440" xr2:uid="{A8D1E7C4-68F5-4242-9343-658F888995E7}"/>
   </bookViews>
@@ -97,9 +97,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>표시 위치(대)</t>
-  </si>
-  <si>
     <t>검증 지표</t>
   </si>
   <si>
@@ -176,6 +173,10 @@
   </si>
   <si>
     <t>요약모달창 닫기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>표시 위치</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -579,9 +580,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0FF9944-9199-9D4A-9D17-570EE2884D1B}">
   <dimension ref="A1:D51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
   <cols>
@@ -591,52 +590,52 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" t="s">
         <v>15</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>16</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>17</v>
-      </c>
-      <c r="D1" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" t="s">
         <v>19</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>20</v>
       </c>
-      <c r="C2" t="s">
-        <v>21</v>
-      </c>
       <c r="D2" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C4" t="s">
         <v>2</v>
@@ -644,15 +643,15 @@
     </row>
     <row r="5" spans="1:4">
       <c r="C5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C6" t="s">
         <v>2</v>
@@ -660,15 +659,15 @@
     </row>
     <row r="7" spans="1:4">
       <c r="C7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C8" t="s">
         <v>2</v>
@@ -676,15 +675,15 @@
     </row>
     <row r="9" spans="1:4">
       <c r="C9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>2</v>
@@ -692,10 +691,10 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>2</v>
@@ -705,7 +704,7 @@
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -765,7 +764,7 @@
     </row>
     <row r="18" spans="1:3">
       <c r="C18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -814,10 +813,10 @@
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B23" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="C23" t="s">
         <v>2</v>
@@ -825,10 +824,10 @@
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
+        <v>28</v>
+      </c>
+      <c r="B24" t="s">
         <v>29</v>
-      </c>
-      <c r="B24" t="s">
-        <v>30</v>
       </c>
       <c r="C24" t="s">
         <v>2</v>
@@ -836,10 +835,10 @@
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B25" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C25" t="s">
         <v>2</v>
